--- a/기획서/기획서 2차.xlsx
+++ b/기획서/기획서 2차.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\08Extra\유니티 게임프로젝트\NoJump\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C034463-6DA0-4996-B661-3115BFE25067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57B2158-6BE2-42C7-9CAE-01926D1F7047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="218">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,31 +296,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>길어진 상태로 해당 블록에 올라갈 경우, 플레이어가 블록을 지나 점점 아래로 내려간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>④ 늪구덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길어진 상태로 해당 부분을 지나갈 경우 늪처럼 점점 빠져 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>⑤ 3가지 장미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 흰 장미 : 작은 상태일 때 닿으면 데미지 입음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 색칠 중인 장미 : 어떤 상태이든 닿으면 데미지 입음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 빨간 장미 : 긴 상태일때 닿으면 데미지 입음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -835,6 +811,102 @@
   </si>
   <si>
     <t>토끼굴 1구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">창의 찌르는 주기 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP -= 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인식 범위 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의 찌르는 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병정 주위의 8cm^2(8블록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 x 4 x 1/4 (부채꼴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv에 따른 내려가는 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv1~lv2는 내려가지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ 구덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업한 상태로 해당 블록에 올라갈 경우, 플레이어가 블록을 지나 점점 아래로 내려간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업한 상태로 해당 부분을 지나갈 경우 늪처럼 점점 빠져 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv3 이상부터 구덩이에 빠짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP -= 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠져나오는 것 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 흰 장미 : 작은 상태일 때 닿으면 데미지 입음 ( LV 1~2 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 색칠 중인 장미 : 어떤 상태이든 닿으면 데미지 입음 ( LV1~5 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 빨간 장미 : 긴 상태일때 닿으면 데미지 입음 ( LV 4~5 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 입는 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP -= 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1722,12 +1794,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1746,13 +1857,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1764,24 +1875,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1794,6 +1911,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1863,6 +1989,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,133 +2061,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5622,150 +5700,148 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
         <v>167</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
         <v>170</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="108" t="s">
+      <c r="B8" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="109"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="43" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="34" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
-    </row>
-    <row r="35" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
@@ -5777,7 +5853,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>7</v>
       </c>
@@ -5800,7 +5876,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>8</v>
       </c>
@@ -5823,7 +5899,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
@@ -5846,7 +5922,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -5869,14 +5945,14 @@
       <c r="N39" s="4"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="17" t="s">
         <v>22</v>
       </c>
@@ -5892,10 +5968,10 @@
       <c r="N40" s="17"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -5911,26 +5987,26 @@
       <c r="N41" s="9"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="33"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5955,310 +6031,319 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.796875" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="118" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-    </row>
-    <row r="23" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:14" ht="124.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+    </row>
+    <row r="23" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:14" ht="124.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="93"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="65"/>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
       <c r="F27">
         <v>20</v>
       </c>
-      <c r="G27" s="117" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
+      <c r="G27" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
       <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" t="s">
         <v>184</v>
       </c>
-      <c r="F28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="49"/>
-    </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="64"/>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C65" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="21"/>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="49"/>
-    </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="64"/>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C66" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="21"/>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="49"/>
-    </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="64"/>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C67" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="21"/>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="49"/>
-    </row>
-    <row r="68" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="64"/>
+    </row>
+    <row r="68" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="24"/>
-      <c r="E68" s="44" t="s">
+      <c r="E68" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="45"/>
-    </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C71" s="43" t="s">
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="58"/>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C71" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="56"/>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="56"/>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43" t="s">
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="56"/>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="43"/>
-      <c r="G71" s="105" t="s">
+      <c r="F74" s="53"/>
+      <c r="G74" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="H71" s="106"/>
-      <c r="I71" s="106"/>
-      <c r="J71" s="106"/>
-      <c r="K71" s="106"/>
-      <c r="L71" s="106"/>
-      <c r="M71" s="107"/>
-    </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="43"/>
-      <c r="G72" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" s="106"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="106"/>
-      <c r="M72" s="107"/>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="106"/>
-      <c r="L73" s="106"/>
-      <c r="M73" s="107"/>
-    </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" s="43"/>
-      <c r="G74" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
-      <c r="J74" s="106"/>
-      <c r="K74" s="106"/>
-      <c r="L74" s="106"/>
-      <c r="M74" s="107"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E68:O68"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="E65:O65"/>
+    <mergeCell ref="E66:O66"/>
+    <mergeCell ref="E67:O67"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="B24:C33"/>
     <mergeCell ref="C71:D74"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="G71:M71"/>
@@ -6268,15 +6353,6 @@
     <mergeCell ref="G73:M73"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="G74:M74"/>
-    <mergeCell ref="E68:O68"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D53:N53"/>
-    <mergeCell ref="E65:O65"/>
-    <mergeCell ref="E66:O66"/>
-    <mergeCell ref="E67:O67"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="B24:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6292,143 +6368,143 @@
       <selection activeCell="D21" sqref="D21:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="50" t="s">
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-    </row>
-    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="27" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="53" t="s">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="48" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-    </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="44" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="43" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="21">
         <v>1</v>
       </c>
@@ -6445,33 +6521,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6501,82 +6577,82 @@
       <selection activeCell="B28" sqref="B28:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="60" t="s">
+    <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="63" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="57" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="63" t="s">
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="21" t="s">
         <v>32</v>
       </c>
@@ -6590,27 +6666,27 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="57" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="63" t="s">
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="21" t="s">
         <v>35</v>
       </c>
@@ -6624,58 +6700,58 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="57" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="43" t="s">
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="21" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="21">
         <v>5</v>
       </c>
@@ -6692,42 +6768,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:L31"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D26:M26"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="B23:C24"/>
@@ -6735,6 +6805,12 @@
     <mergeCell ref="D20:M20"/>
     <mergeCell ref="D21:M21"/>
     <mergeCell ref="D22:M22"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:L31"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6745,259 +6821,482 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
-  <dimension ref="B18:O31"/>
+  <dimension ref="B19:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="18" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="27" t="s">
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="26" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="22" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="48" t="s">
+      <c r="C24" s="119"/>
+      <c r="D24" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="119"/>
+      <c r="D27" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
-    </row>
-    <row r="26" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="107"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:L31"/>
+  <mergeCells count="36">
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B24:C26"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D23:O23"/>
     <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7014,124 +7313,124 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-    </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="43" t="s">
+      <c r="D21" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="105" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="107"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="107"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="107"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7163,768 +7462,764 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="27">
+        <v>10</v>
+      </c>
+      <c r="D3" s="27">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27">
+        <v>10</v>
+      </c>
+      <c r="F3" s="27">
+        <v>10</v>
+      </c>
+      <c r="G3" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="27">
+        <v>10</v>
+      </c>
+      <c r="D4" s="27">
+        <v>10</v>
+      </c>
+      <c r="E4" s="27">
+        <v>10</v>
+      </c>
+      <c r="F4" s="27">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="27">
+        <v>5</v>
+      </c>
+      <c r="D5" s="27">
+        <v>4</v>
+      </c>
+      <c r="E5" s="27">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>2</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>4</v>
+      </c>
+      <c r="G6" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
+        <v>2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
+        <v>4</v>
+      </c>
+      <c r="G7" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="111" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="76" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78">
+      <c r="B9" s="99"/>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="27">
+        <v>-1.5</v>
+      </c>
+      <c r="F9" s="27">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>3</v>
+      </c>
+      <c r="E10" s="27">
+        <v>5</v>
+      </c>
+      <c r="F10" s="27">
+        <v>7</v>
+      </c>
+      <c r="G10" s="28">
         <v>10</v>
       </c>
-      <c r="D3" s="78">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <v>3</v>
+      </c>
+      <c r="E11" s="27">
+        <v>5</v>
+      </c>
+      <c r="F11" s="27">
+        <v>7</v>
+      </c>
+      <c r="G11" s="28">
         <v>10</v>
       </c>
-      <c r="E3" s="78">
-        <v>10</v>
-      </c>
-      <c r="F3" s="78">
-        <v>10</v>
-      </c>
-      <c r="G3" s="79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78">
-        <v>10</v>
-      </c>
-      <c r="D4" s="78">
-        <v>10</v>
-      </c>
-      <c r="E4" s="78">
-        <v>10</v>
-      </c>
-      <c r="F4" s="78">
-        <v>10</v>
-      </c>
-      <c r="G4" s="79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78">
-        <v>5</v>
-      </c>
-      <c r="D5" s="78">
-        <v>4</v>
-      </c>
-      <c r="E5" s="78">
-        <v>3</v>
-      </c>
-      <c r="F5" s="78">
-        <v>2</v>
-      </c>
-      <c r="G5" s="79">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="27">
+        <v>100</v>
+      </c>
+      <c r="D12" s="27">
+        <v>100</v>
+      </c>
+      <c r="E12" s="27">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27">
+        <v>100</v>
+      </c>
+      <c r="G12" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="110"/>
+      <c r="C13" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78">
-        <v>2</v>
-      </c>
-      <c r="E6" s="78">
-        <v>3</v>
-      </c>
-      <c r="F6" s="78">
-        <v>4</v>
-      </c>
-      <c r="G6" s="79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78">
-        <v>1</v>
-      </c>
-      <c r="D7" s="78">
-        <v>2</v>
-      </c>
-      <c r="E7" s="78">
-        <v>3</v>
-      </c>
-      <c r="F7" s="78">
-        <v>4</v>
-      </c>
-      <c r="G7" s="79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78">
-        <v>2</v>
-      </c>
-      <c r="D8" s="78">
-        <v>0</v>
-      </c>
-      <c r="E8" s="78">
-        <v>0</v>
-      </c>
-      <c r="F8" s="78">
-        <v>0</v>
-      </c>
-      <c r="G8" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="76" t="s">
+      <c r="D13" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78">
-        <v>0</v>
-      </c>
-      <c r="D9" s="80" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="78">
-        <v>-1.5</v>
-      </c>
-      <c r="F9" s="78">
-        <v>-3</v>
-      </c>
-      <c r="G9" s="79">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="76" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78">
-        <v>0</v>
-      </c>
-      <c r="D10" s="78">
-        <v>3</v>
-      </c>
-      <c r="E10" s="78">
-        <v>5</v>
-      </c>
-      <c r="F10" s="78">
-        <v>7</v>
-      </c>
-      <c r="G10" s="79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="76" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78">
-        <v>0</v>
-      </c>
-      <c r="D11" s="78">
-        <v>3</v>
-      </c>
-      <c r="E11" s="78">
-        <v>5</v>
-      </c>
-      <c r="F11" s="78">
-        <v>7</v>
-      </c>
-      <c r="G11" s="79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="76" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78">
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="78">
-        <v>100</v>
-      </c>
-      <c r="E12" s="78">
-        <v>100</v>
-      </c>
-      <c r="F12" s="78">
-        <v>100</v>
-      </c>
-      <c r="G12" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83">
-        <v>1</v>
-      </c>
-      <c r="D13" s="83">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13" s="83">
-        <v>1.2</v>
-      </c>
-      <c r="F13" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="G13" s="84">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="77" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="101"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="94"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="103"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="94"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="104"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="77" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="101"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="94"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="103"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="94"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="104"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="87" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="101"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="94"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="103"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="94"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="104"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="90" t="s">
+      <c r="B37" s="53"/>
+      <c r="C37" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="91"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="90"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="90"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="95"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="91"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="90"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="90"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="95"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="91"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="90"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="90"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="95"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="91"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="90"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="101"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="94"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="103"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="100"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="85" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="77" t="s">
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77" t="s">
+      <c r="B47" s="99"/>
+      <c r="C47" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="77" t="s">
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="102" t="s">
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102" t="s">
+      <c r="B49" s="99"/>
+      <c r="C49" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="77" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="77" t="s">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="77" t="s">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77" t="s">
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="43" t="s">
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="95"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="43" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="95"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="43" t="s">
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="95"/>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="96" t="s">
         <v>129</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="103"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="103"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="103"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="96" t="s">
-        <v>135</v>
       </c>
       <c r="B59" s="97"/>
       <c r="C59" s="97"/>
       <c r="D59" s="97"/>
       <c r="E59" s="97"/>
       <c r="F59" s="97"/>
-      <c r="G59" s="104"/>
+      <c r="G59" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A34:B36"/>
-    <mergeCell ref="C34:G36"/>
-    <mergeCell ref="A37:B39"/>
-    <mergeCell ref="C37:G39"/>
-    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -7934,30 +8229,34 @@
     <mergeCell ref="C28:G30"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="C31:G33"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A34:B36"/>
+    <mergeCell ref="C34:G36"/>
+    <mergeCell ref="A37:B39"/>
+    <mergeCell ref="C37:G39"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/기획서 2차.xlsx
+++ b/기획서/기획서 2차.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57B2158-6BE2-42C7-9CAE-01926D1F7047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FAC6D1-129B-43C0-A513-570CBF6B29B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="214">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,42 +641,6 @@
   </si>
   <si>
     <t>무게에 따른 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하트왕국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv3이상부터 구덩이에 빠짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰장미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv2이하부터 흰장미에 데미지를 입음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색칠중인 장미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv3이 되었을 시 빨간 장미에 데미지를 입음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 장미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv4이상부터 빨간 장미에 데미지를 입음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -842,10 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/2 x 4 x 1/4 (부채꼴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lv에 따른 내려가는 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,6 +867,30 @@
   </si>
   <si>
     <t>HP -= 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP -= 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 x 4 x 8 ( 부채꼴 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 x 4 x 12 (부채꼴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생성 시간 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어지는 속도 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 범위 :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1527,43 +1511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1709,13 +1656,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1791,9 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1971,31 +1928,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2019,27 +1958,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2052,13 +1991,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2067,6 +2006,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,6 +2020,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5704,65 +5667,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>166</v>
+      <c r="A5" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5771,75 +5734,75 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>176</v>
+      <c r="A12" s="33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
     </row>
     <row r="35" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -5949,10 +5912,10 @@
       <c r="A40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="42"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="17" t="s">
         <v>22</v>
       </c>
@@ -5970,8 +5933,8 @@
     </row>
     <row r="41" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="9" t="s">
         <v>23</v>
       </c>
@@ -5992,21 +5955,21 @@
       <c r="B42" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="46"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6038,134 +6001,134 @@
   </cols>
   <sheetData>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
-        <v>189</v>
+      <c r="B19" s="36" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
+      <c r="B22" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:14" ht="124.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="64"/>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
       <c r="F27">
         <v>20</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="E28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" t="s">
-        <v>191</v>
-      </c>
-    </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
@@ -6173,165 +6136,165 @@
         <v>39</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="64"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="63"/>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C65" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="21"/>
-      <c r="E65" s="63" t="s">
+      <c r="E65" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="64"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="63"/>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C66" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="21"/>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="64"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="63"/>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C67" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="21"/>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="64"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="63"/>
     </row>
     <row r="68" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="24"/>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="58"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
     </row>
     <row r="71" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53" t="s">
+      <c r="D71" s="52"/>
+      <c r="E71" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="56"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="55"/>
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53" t="s">
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54" t="s">
+      <c r="F72" s="52"/>
+      <c r="G72" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="56"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="55"/>
     </row>
     <row r="73" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53" t="s">
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="54" t="s">
+      <c r="F73" s="52"/>
+      <c r="G73" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="56"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="55"/>
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53" t="s">
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54" t="s">
+      <c r="F74" s="52"/>
+      <c r="G74" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="56"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6372,114 +6335,114 @@
   <sheetData>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="70"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="63" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="57" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="21" t="s">
         <v>141</v>
       </c>
@@ -6497,14 +6460,14 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="21">
         <v>1</v>
       </c>
@@ -6522,32 +6485,32 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="47" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6581,78 +6544,78 @@
   <sheetData>
     <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="75" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="75" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="77"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="21" t="s">
         <v>32</v>
       </c>
@@ -6667,26 +6630,26 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="21" t="s">
         <v>35</v>
       </c>
@@ -6701,32 +6664,32 @@
       <c r="M25" s="21"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="21" t="s">
         <v>141</v>
       </c>
@@ -6744,14 +6707,14 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="21">
         <v>5</v>
       </c>
@@ -6769,32 +6732,32 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="47" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6823,441 +6786,441 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
   <dimension ref="B19:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53" t="s">
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53" t="s">
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53" t="s">
+      <c r="C27" s="113"/>
+      <c r="D27" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="118" t="s">
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="53" t="s">
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="119" t="s">
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -7309,143 +7272,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
   <dimension ref="B18:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="68" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-    </row>
-    <row r="20" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="85" t="s">
+      <c r="C20" s="121"/>
+      <c r="D20" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
-    </row>
-    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="88" t="s">
+      <c r="C21" s="113"/>
+      <c r="D21" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="88"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="110"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="88"/>
+    </row>
+    <row r="23" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="115"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90">
+        <v>1</v>
+      </c>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:L27"/>
+  <mergeCells count="13">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7465,734 +7456,734 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="27">
+      <c r="B3" s="92"/>
+      <c r="C3" s="26">
         <v>10</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>10</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>10</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>10</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="27">
+      <c r="B4" s="92"/>
+      <c r="C4" s="26">
         <v>10</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>10</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>10</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>10</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="27">
+      <c r="B5" s="92"/>
+      <c r="C5" s="26">
         <v>5</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>4</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>3</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>2</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="27">
+      <c r="B6" s="92"/>
+      <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>3</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>4</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="27">
+      <c r="B7" s="92"/>
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>4</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="27">
+      <c r="B8" s="92"/>
+      <c r="C8" s="26">
         <v>2</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>0</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="27">
+      <c r="B9" s="92"/>
+      <c r="C9" s="26">
         <v>0</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>-1.5</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>-3</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="27">
+      <c r="B10" s="92"/>
+      <c r="C10" s="26">
         <v>0</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>3</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>5</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>7</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="27">
+      <c r="B11" s="92"/>
+      <c r="C11" s="26">
         <v>0</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>3</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>5</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>7</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="27">
+      <c r="B12" s="92"/>
+      <c r="C12" s="26">
         <v>100</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>100</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>100</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>100</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="30">
+      <c r="B13" s="103"/>
+      <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>1.2</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>1.3</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99" t="s">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99" t="s">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="93"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="47" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="101"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="94"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="103"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="96"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="104"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="47" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="101"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="94"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="103"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="104"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="101"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="94"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="103"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="96"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="104"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="97"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="101"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="94"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="103"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="96"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="107"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99" t="s">
+      <c r="B45" s="92"/>
+      <c r="C45" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100" t="s">
+      <c r="B46" s="93"/>
+      <c r="C46" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="99" t="s">
+      <c r="A47" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99" t="s">
+      <c r="B47" s="92"/>
+      <c r="C47" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99" t="s">
+      <c r="B48" s="92"/>
+      <c r="C48" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99" t="s">
+      <c r="B49" s="92"/>
+      <c r="C49" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53" t="s">
+      <c r="B50" s="52"/>
+      <c r="C50" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53" t="s">
+      <c r="B53" s="52"/>
+      <c r="C53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
     </row>
     <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="93"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="95"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="88"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="95"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="88"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="95"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="88"/>
     </row>
     <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="98"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="61">
